--- a/teaching/traditional_assets/database/data/finland/finland_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/finland/finland_insurance_general.xlsx
@@ -591,49 +591,49 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0725</v>
+        <v>0.0803</v>
       </c>
       <c r="E2">
-        <v>-0.0601</v>
+        <v>-0.06509999999999999</v>
       </c>
       <c r="F2">
-        <v>0.0154</v>
+        <v>0.115</v>
       </c>
       <c r="G2">
-        <v>0.1656736212835029</v>
+        <v>0.1283299180327869</v>
       </c>
       <c r="H2">
-        <v>0.1656736212835029</v>
+        <v>0.1283299180327869</v>
       </c>
       <c r="I2">
-        <v>0.1242714057138172</v>
+        <v>0.1196666422716628</v>
       </c>
       <c r="J2">
-        <v>0.1001480009604224</v>
+        <v>0.09993423432769508</v>
       </c>
       <c r="K2">
-        <v>1236.5</v>
+        <v>1411.5</v>
       </c>
       <c r="L2">
-        <v>0.1223821212241181</v>
+        <v>0.1291258050351288</v>
       </c>
       <c r="M2">
-        <v>1731.5</v>
+        <v>978.2</v>
       </c>
       <c r="N2">
-        <v>0.07143564397283672</v>
+        <v>0.04165318253819557</v>
       </c>
       <c r="O2">
-        <v>1.400323493732309</v>
+        <v>0.6930216082182076</v>
       </c>
       <c r="P2">
-        <v>1731.5</v>
+        <v>978.2</v>
       </c>
       <c r="Q2">
-        <v>0.07143564397283672</v>
+        <v>0.04165318253819557</v>
       </c>
       <c r="R2">
-        <v>1.400323493732309</v>
+        <v>0.6930216082182076</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,70 +642,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2451.2</v>
+        <v>1380.9</v>
       </c>
       <c r="V2">
-        <v>0.1011279529345754</v>
+        <v>0.05880073580759994</v>
       </c>
       <c r="W2">
-        <v>0.08528350817659514</v>
+        <v>0.1148513401357223</v>
       </c>
       <c r="X2">
-        <v>0.05059326950575913</v>
+        <v>0.05052585406158823</v>
       </c>
       <c r="Y2">
-        <v>0.03469023867083601</v>
+        <v>0.06432548607413409</v>
       </c>
       <c r="Z2">
-        <v>0.5789644736428644</v>
+        <v>0.9811158181948735</v>
       </c>
       <c r="AA2">
-        <v>0.05798213466243602</v>
+        <v>0.09804705807809476</v>
       </c>
       <c r="AB2">
-        <v>0.04922544096268631</v>
+        <v>0.04382671695860546</v>
       </c>
       <c r="AC2">
-        <v>0.008756693699749706</v>
+        <v>0.0542203411194893</v>
       </c>
       <c r="AD2">
-        <v>1303</v>
+        <v>6516</v>
       </c>
       <c r="AE2">
-        <v>164.0571261493852</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1467.057126149385</v>
+        <v>6516</v>
       </c>
       <c r="AG2">
-        <v>-984.1428738506147</v>
+        <v>5135.1</v>
       </c>
       <c r="AH2">
-        <v>0.05707137222557146</v>
+        <v>0.2171971040386128</v>
       </c>
       <c r="AI2">
-        <v>0.101708343393582</v>
+        <v>0.3105903886669781</v>
       </c>
       <c r="AJ2">
-        <v>-0.04232061271144261</v>
+        <v>0.1794266147207324</v>
       </c>
       <c r="AK2">
-        <v>-0.08219714340254422</v>
+        <v>0.262014950123734</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="AM2">
-        <v>-15.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="AN2">
-        <v>0.9461225675283182</v>
+        <v>4.766293614219882</v>
+      </c>
+      <c r="AO2">
+        <v>15.68465227817746</v>
       </c>
       <c r="AP2">
-        <v>-0.714596916824437</v>
+        <v>3.756199253895107</v>
       </c>
       <c r="AQ2">
-        <v>-81.88888888888889</v>
+        <v>15.68465227817746</v>
       </c>
     </row>
     <row r="3">
@@ -725,49 +728,49 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0725</v>
+        <v>0.0803</v>
       </c>
       <c r="E3">
-        <v>-0.0601</v>
+        <v>-0.06509999999999999</v>
       </c>
       <c r="F3">
-        <v>0.0154</v>
+        <v>0.115</v>
       </c>
       <c r="G3">
-        <v>0.1656736212835029</v>
+        <v>0.1283299180327869</v>
       </c>
       <c r="H3">
-        <v>0.1656736212835029</v>
+        <v>0.1283299180327869</v>
       </c>
       <c r="I3">
-        <v>0.1242714057138172</v>
+        <v>0.1196666422716628</v>
       </c>
       <c r="J3">
-        <v>0.1001480009604224</v>
+        <v>0.09993423432769508</v>
       </c>
       <c r="K3">
-        <v>1236.5</v>
+        <v>1411.5</v>
       </c>
       <c r="L3">
-        <v>0.1223821212241181</v>
+        <v>0.1291258050351288</v>
       </c>
       <c r="M3">
-        <v>1731.5</v>
+        <v>978.2</v>
       </c>
       <c r="N3">
-        <v>0.07143564397283672</v>
+        <v>0.04165318253819557</v>
       </c>
       <c r="O3">
-        <v>1.400323493732309</v>
+        <v>0.6930216082182076</v>
       </c>
       <c r="P3">
-        <v>1731.5</v>
+        <v>978.2</v>
       </c>
       <c r="Q3">
-        <v>0.07143564397283672</v>
+        <v>0.04165318253819557</v>
       </c>
       <c r="R3">
-        <v>1.400323493732309</v>
+        <v>0.6930216082182076</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -776,70 +779,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2451.2</v>
+        <v>1380.9</v>
       </c>
       <c r="V3">
-        <v>0.1011279529345754</v>
+        <v>0.05880073580759994</v>
       </c>
       <c r="W3">
-        <v>0.08528350817659514</v>
+        <v>0.1148513401357223</v>
       </c>
       <c r="X3">
-        <v>0.05059326950575913</v>
+        <v>0.05052585406158823</v>
       </c>
       <c r="Y3">
-        <v>0.03469023867083601</v>
+        <v>0.06432548607413409</v>
       </c>
       <c r="Z3">
-        <v>0.5789644736428644</v>
+        <v>0.9811158181948735</v>
       </c>
       <c r="AA3">
-        <v>0.05798213466243602</v>
+        <v>0.09804705807809476</v>
       </c>
       <c r="AB3">
-        <v>0.04922544096268631</v>
+        <v>0.04382671695860546</v>
       </c>
       <c r="AC3">
-        <v>0.008756693699749706</v>
+        <v>0.0542203411194893</v>
       </c>
       <c r="AD3">
-        <v>1303</v>
+        <v>6516</v>
       </c>
       <c r="AE3">
-        <v>164.0571261493852</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1467.057126149385</v>
+        <v>6516</v>
       </c>
       <c r="AG3">
-        <v>-984.1428738506147</v>
+        <v>5135.1</v>
       </c>
       <c r="AH3">
-        <v>0.05707137222557146</v>
+        <v>0.2171971040386128</v>
       </c>
       <c r="AI3">
-        <v>0.101708343393582</v>
+        <v>0.3105903886669781</v>
       </c>
       <c r="AJ3">
-        <v>-0.04232061271144261</v>
+        <v>0.1794266147207324</v>
       </c>
       <c r="AK3">
-        <v>-0.08219714340254422</v>
+        <v>0.262014950123734</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="AM3">
-        <v>-15.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="AN3">
-        <v>0.9461225675283182</v>
+        <v>4.766293614219882</v>
+      </c>
+      <c r="AO3">
+        <v>15.68465227817746</v>
       </c>
       <c r="AP3">
-        <v>-0.714596916824437</v>
+        <v>3.756199253895107</v>
       </c>
       <c r="AQ3">
-        <v>-81.88888888888889</v>
+        <v>15.68465227817746</v>
       </c>
     </row>
   </sheetData>
